--- a/Jogos_do_Dia/2023-02-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,7 +653,7 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N2" t="n">
         <v>1.91</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="H3" t="n">
-        <v>3.23</v>
+        <v>3.02</v>
       </c>
       <c r="I3" t="n">
         <v>1.1</v>
@@ -757,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="M3" t="n">
-        <v>2.66</v>
+        <v>2.47</v>
       </c>
       <c r="N3" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
         <v>1.58</v>
@@ -814,13 +814,13 @@
         <v>2.05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="H5" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -1034,19 +1034,19 @@
         <v>2.44</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1087,28 +1087,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1254,10 +1254,10 @@
         <v>2.41</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF7" t="n">
         <v>1.65</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="H8" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N8" t="n">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1364,7 +1364,7 @@
         <v>1.69</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE8" t="n">
         <v>1.48</v>
@@ -1423,10 +1423,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="N9" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
@@ -1465,16 +1465,16 @@
         <v>3.29</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE9" t="n">
         <v>1.5</v>
@@ -1486,7 +1486,7 @@
         <v>2.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1530,7 +1530,7 @@
         <v>1.5</v>
       </c>
       <c r="L10" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M10" t="n">
         <v>2.55</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1622,25 +1622,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="G11" t="n">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.78</v>
@@ -1649,10 +1649,10 @@
         <v>1.97</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>1.57</v>
@@ -1661,13 +1661,13 @@
         <v>2.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.22</v>
@@ -1685,28 +1685,28 @@
         <v>3.33</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -1732,37 +1732,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="G12" t="n">
-        <v>3.74</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
         <v>1.53</v>
@@ -1771,13 +1771,13 @@
         <v>2.38</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
         <v>2.11</v>
@@ -1795,28 +1795,28 @@
         <v>3.34</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
         <v>1.04</v>
@@ -1863,10 +1863,10 @@
         <v>3.19</v>
       </c>
       <c r="M13" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O13" t="n">
         <v>1.41</v>
@@ -2015,13 +2015,13 @@
         <v>3.23</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD14" t="n">
         <v>1.18</v>
@@ -2125,13 +2125,13 @@
         <v>2.66</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD15" t="n">
         <v>1.22</v>
@@ -2235,13 +2235,13 @@
         <v>2.57</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AD16" t="n">
         <v>1.22</v>
@@ -2345,13 +2345,13 @@
         <v>3.04</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AD17" t="n">
         <v>1.22</v>
@@ -2455,13 +2455,13 @@
         <v>3.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2565,13 +2565,13 @@
         <v>2.47</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD19" t="n">
         <v>1.27</v>
@@ -2675,13 +2675,13 @@
         <v>3.02</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AD20" t="n">
         <v>1.27</v>
@@ -2785,28 +2785,28 @@
         <v>3.23</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.31</v>
+        <v>2.64</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.56</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.99</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="N23" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3052,37 +3052,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G24" t="n">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="N24" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.53</v>
@@ -3091,13 +3091,13 @@
         <v>2.38</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
         <v>2.33</v>
@@ -3115,28 +3115,28 @@
         <v>3.52</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3234,19 +3234,19 @@
         <v>2.62</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="H26" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="I26" t="n">
         <v>1.03</v>
@@ -3293,10 +3293,10 @@
         <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="N26" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H27" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="I27" t="n">
         <v>1.07</v>
@@ -3403,10 +3403,10 @@
         <v>3.1</v>
       </c>
       <c r="M27" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="I28" t="n">
         <v>1.11</v>
@@ -3513,10 +3513,10 @@
         <v>2.62</v>
       </c>
       <c r="M28" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="N28" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.06</v>
+        <v>3.28</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="H29" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="I29" t="n">
         <v>1.08</v>
@@ -3623,10 +3623,10 @@
         <v>2.85</v>
       </c>
       <c r="M29" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O29" t="n">
         <v>1.46</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="H30" t="n">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3733,10 +3733,10 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="G31" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>4.16</v>
       </c>
       <c r="I31" t="n">
         <v>1.09</v>
@@ -3843,10 +3843,10 @@
         <v>2.65</v>
       </c>
       <c r="M31" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
         <v>1.49</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.04</v>
+        <v>2.74</v>
       </c>
       <c r="I32" t="n">
         <v>1.12</v>
@@ -3947,16 +3947,16 @@
         <v>5.75</v>
       </c>
       <c r="K32" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="M32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="O32" t="n">
         <v>1.58</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>4.24</v>
       </c>
       <c r="I33" t="n">
         <v>1.09</v>
@@ -4063,7 +4063,7 @@
         <v>2.55</v>
       </c>
       <c r="M33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N33" t="n">
         <v>1.57</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>4.04</v>
       </c>
       <c r="I34" t="n">
         <v>1.09</v>
@@ -4173,10 +4173,10 @@
         <v>2.6</v>
       </c>
       <c r="M34" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N34" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
         <v>1.03</v>
@@ -4283,10 +4283,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.73</v>
+        <v>3.88</v>
       </c>
       <c r="G36" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="H36" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="I36" t="n">
         <v>1.08</v>
@@ -4393,10 +4393,10 @@
         <v>2.75</v>
       </c>
       <c r="M36" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="N36" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="O36" t="n">
         <v>1.49</v>
@@ -4435,25 +4435,25 @@
         <v>2.85</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.44</v>
+        <v>2.53</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
         <v>1.12</v>
@@ -4500,10 +4500,10 @@
         <v>1.53</v>
       </c>
       <c r="L37" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M37" t="n">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="N37" t="n">
         <v>1.38</v>
@@ -4554,19 +4554,19 @@
         <v>2.65</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38">
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G38" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="I38" t="n">
         <v>1.05</v>
@@ -4613,10 +4613,10 @@
         <v>3.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="O38" t="n">
         <v>1.39</v>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="n">
         <v>7.8</v>
@@ -4723,10 +4723,10 @@
         <v>3.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="N39" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>4.22</v>
       </c>
       <c r="H40" t="n">
-        <v>5.8</v>
+        <v>5.65</v>
       </c>
       <c r="I40" t="n">
         <v>1.05</v>
@@ -4833,10 +4833,10 @@
         <v>3.7</v>
       </c>
       <c r="M40" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="N40" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G41" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="H41" t="n">
-        <v>4.92</v>
+        <v>4.08</v>
       </c>
       <c r="I41" t="n">
         <v>1.07</v>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="G42" t="n">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="H42" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -5051,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="N42" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>2.71</v>
       </c>
       <c r="G43" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="H43" t="n">
-        <v>2.11</v>
+        <v>2.53</v>
       </c>
       <c r="I43" t="n">
         <v>1.02</v>
@@ -5464,13 +5464,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.44</v>
+        <v>1.99</v>
       </c>
       <c r="G46" t="n">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="H46" t="n">
-        <v>3.04</v>
+        <v>3.56</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="H47" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="I47" t="n">
         <v>1.05</v>
@@ -5595,10 +5595,10 @@
         <v>3.3</v>
       </c>
       <c r="M47" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="N47" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
